--- a/Running projects/Khaadi Kanteen F-6, Islamabad/Runnng Bill No 1 - Kanteen ISL.xlsx
+++ b/Running projects/Khaadi Kanteen F-6, Islamabad/Runnng Bill No 1 - Kanteen ISL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Khaadi Kanteen F-6, Islamabad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F967F32-735A-4DB1-AD9B-3938B1D1E689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EED3791-FF4F-462F-BF27-1A54271FE906}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$C$31</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Table 1'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>BILL OF QUANTITIES</t>
   </si>
@@ -352,6 +352,11 @@
   <si>
     <t>Variarion of Exhaust Fan complete in all respects.</t>
   </si>
+  <si>
+    <t>Note:
+1) 78 SFT Ducting handed over to Khaadi Team, not installed due to changing in the drawings, also witnesed by Mr. Farhan (from Management)
+2) Butterfly damper size 14" Dia handed over to Khaadi Team.</t>
+  </si>
 </sst>
 </file>
 
@@ -364,7 +369,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -506,6 +511,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -680,7 +692,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -729,96 +741,57 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -838,9 +811,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -871,6 +841,54 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1359,526 +1377,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E049FABE-8842-4C1B-BE8A-1955121922AF}">
-  <dimension ref="A11:C27"/>
+  <dimension ref="A11:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="71.5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" style="64" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="56"/>
-    <col min="5" max="5" width="14.1640625" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="56" bestFit="1" customWidth="1"/>
-    <col min="7" max="254" width="9.33203125" style="56"/>
-    <col min="255" max="255" width="7.33203125" style="56" customWidth="1"/>
-    <col min="256" max="256" width="47.5" style="56" customWidth="1"/>
-    <col min="257" max="257" width="20.33203125" style="56" customWidth="1"/>
-    <col min="258" max="258" width="18" style="56" customWidth="1"/>
-    <col min="259" max="259" width="21.33203125" style="56" customWidth="1"/>
-    <col min="260" max="510" width="9.33203125" style="56"/>
-    <col min="511" max="511" width="7.33203125" style="56" customWidth="1"/>
-    <col min="512" max="512" width="47.5" style="56" customWidth="1"/>
-    <col min="513" max="513" width="20.33203125" style="56" customWidth="1"/>
-    <col min="514" max="514" width="18" style="56" customWidth="1"/>
-    <col min="515" max="515" width="21.33203125" style="56" customWidth="1"/>
-    <col min="516" max="766" width="9.33203125" style="56"/>
-    <col min="767" max="767" width="7.33203125" style="56" customWidth="1"/>
-    <col min="768" max="768" width="47.5" style="56" customWidth="1"/>
-    <col min="769" max="769" width="20.33203125" style="56" customWidth="1"/>
-    <col min="770" max="770" width="18" style="56" customWidth="1"/>
-    <col min="771" max="771" width="21.33203125" style="56" customWidth="1"/>
-    <col min="772" max="1022" width="9.33203125" style="56"/>
-    <col min="1023" max="1023" width="7.33203125" style="56" customWidth="1"/>
-    <col min="1024" max="1024" width="47.5" style="56" customWidth="1"/>
-    <col min="1025" max="1025" width="20.33203125" style="56" customWidth="1"/>
-    <col min="1026" max="1026" width="18" style="56" customWidth="1"/>
-    <col min="1027" max="1027" width="21.33203125" style="56" customWidth="1"/>
-    <col min="1028" max="1278" width="9.33203125" style="56"/>
-    <col min="1279" max="1279" width="7.33203125" style="56" customWidth="1"/>
-    <col min="1280" max="1280" width="47.5" style="56" customWidth="1"/>
-    <col min="1281" max="1281" width="20.33203125" style="56" customWidth="1"/>
-    <col min="1282" max="1282" width="18" style="56" customWidth="1"/>
-    <col min="1283" max="1283" width="21.33203125" style="56" customWidth="1"/>
-    <col min="1284" max="1534" width="9.33203125" style="56"/>
-    <col min="1535" max="1535" width="7.33203125" style="56" customWidth="1"/>
-    <col min="1536" max="1536" width="47.5" style="56" customWidth="1"/>
-    <col min="1537" max="1537" width="20.33203125" style="56" customWidth="1"/>
-    <col min="1538" max="1538" width="18" style="56" customWidth="1"/>
-    <col min="1539" max="1539" width="21.33203125" style="56" customWidth="1"/>
-    <col min="1540" max="1790" width="9.33203125" style="56"/>
-    <col min="1791" max="1791" width="7.33203125" style="56" customWidth="1"/>
-    <col min="1792" max="1792" width="47.5" style="56" customWidth="1"/>
-    <col min="1793" max="1793" width="20.33203125" style="56" customWidth="1"/>
-    <col min="1794" max="1794" width="18" style="56" customWidth="1"/>
-    <col min="1795" max="1795" width="21.33203125" style="56" customWidth="1"/>
-    <col min="1796" max="2046" width="9.33203125" style="56"/>
-    <col min="2047" max="2047" width="7.33203125" style="56" customWidth="1"/>
-    <col min="2048" max="2048" width="47.5" style="56" customWidth="1"/>
-    <col min="2049" max="2049" width="20.33203125" style="56" customWidth="1"/>
-    <col min="2050" max="2050" width="18" style="56" customWidth="1"/>
-    <col min="2051" max="2051" width="21.33203125" style="56" customWidth="1"/>
-    <col min="2052" max="2302" width="9.33203125" style="56"/>
-    <col min="2303" max="2303" width="7.33203125" style="56" customWidth="1"/>
-    <col min="2304" max="2304" width="47.5" style="56" customWidth="1"/>
-    <col min="2305" max="2305" width="20.33203125" style="56" customWidth="1"/>
-    <col min="2306" max="2306" width="18" style="56" customWidth="1"/>
-    <col min="2307" max="2307" width="21.33203125" style="56" customWidth="1"/>
-    <col min="2308" max="2558" width="9.33203125" style="56"/>
-    <col min="2559" max="2559" width="7.33203125" style="56" customWidth="1"/>
-    <col min="2560" max="2560" width="47.5" style="56" customWidth="1"/>
-    <col min="2561" max="2561" width="20.33203125" style="56" customWidth="1"/>
-    <col min="2562" max="2562" width="18" style="56" customWidth="1"/>
-    <col min="2563" max="2563" width="21.33203125" style="56" customWidth="1"/>
-    <col min="2564" max="2814" width="9.33203125" style="56"/>
-    <col min="2815" max="2815" width="7.33203125" style="56" customWidth="1"/>
-    <col min="2816" max="2816" width="47.5" style="56" customWidth="1"/>
-    <col min="2817" max="2817" width="20.33203125" style="56" customWidth="1"/>
-    <col min="2818" max="2818" width="18" style="56" customWidth="1"/>
-    <col min="2819" max="2819" width="21.33203125" style="56" customWidth="1"/>
-    <col min="2820" max="3070" width="9.33203125" style="56"/>
-    <col min="3071" max="3071" width="7.33203125" style="56" customWidth="1"/>
-    <col min="3072" max="3072" width="47.5" style="56" customWidth="1"/>
-    <col min="3073" max="3073" width="20.33203125" style="56" customWidth="1"/>
-    <col min="3074" max="3074" width="18" style="56" customWidth="1"/>
-    <col min="3075" max="3075" width="21.33203125" style="56" customWidth="1"/>
-    <col min="3076" max="3326" width="9.33203125" style="56"/>
-    <col min="3327" max="3327" width="7.33203125" style="56" customWidth="1"/>
-    <col min="3328" max="3328" width="47.5" style="56" customWidth="1"/>
-    <col min="3329" max="3329" width="20.33203125" style="56" customWidth="1"/>
-    <col min="3330" max="3330" width="18" style="56" customWidth="1"/>
-    <col min="3331" max="3331" width="21.33203125" style="56" customWidth="1"/>
-    <col min="3332" max="3582" width="9.33203125" style="56"/>
-    <col min="3583" max="3583" width="7.33203125" style="56" customWidth="1"/>
-    <col min="3584" max="3584" width="47.5" style="56" customWidth="1"/>
-    <col min="3585" max="3585" width="20.33203125" style="56" customWidth="1"/>
-    <col min="3586" max="3586" width="18" style="56" customWidth="1"/>
-    <col min="3587" max="3587" width="21.33203125" style="56" customWidth="1"/>
-    <col min="3588" max="3838" width="9.33203125" style="56"/>
-    <col min="3839" max="3839" width="7.33203125" style="56" customWidth="1"/>
-    <col min="3840" max="3840" width="47.5" style="56" customWidth="1"/>
-    <col min="3841" max="3841" width="20.33203125" style="56" customWidth="1"/>
-    <col min="3842" max="3842" width="18" style="56" customWidth="1"/>
-    <col min="3843" max="3843" width="21.33203125" style="56" customWidth="1"/>
-    <col min="3844" max="4094" width="9.33203125" style="56"/>
-    <col min="4095" max="4095" width="7.33203125" style="56" customWidth="1"/>
-    <col min="4096" max="4096" width="47.5" style="56" customWidth="1"/>
-    <col min="4097" max="4097" width="20.33203125" style="56" customWidth="1"/>
-    <col min="4098" max="4098" width="18" style="56" customWidth="1"/>
-    <col min="4099" max="4099" width="21.33203125" style="56" customWidth="1"/>
-    <col min="4100" max="4350" width="9.33203125" style="56"/>
-    <col min="4351" max="4351" width="7.33203125" style="56" customWidth="1"/>
-    <col min="4352" max="4352" width="47.5" style="56" customWidth="1"/>
-    <col min="4353" max="4353" width="20.33203125" style="56" customWidth="1"/>
-    <col min="4354" max="4354" width="18" style="56" customWidth="1"/>
-    <col min="4355" max="4355" width="21.33203125" style="56" customWidth="1"/>
-    <col min="4356" max="4606" width="9.33203125" style="56"/>
-    <col min="4607" max="4607" width="7.33203125" style="56" customWidth="1"/>
-    <col min="4608" max="4608" width="47.5" style="56" customWidth="1"/>
-    <col min="4609" max="4609" width="20.33203125" style="56" customWidth="1"/>
-    <col min="4610" max="4610" width="18" style="56" customWidth="1"/>
-    <col min="4611" max="4611" width="21.33203125" style="56" customWidth="1"/>
-    <col min="4612" max="4862" width="9.33203125" style="56"/>
-    <col min="4863" max="4863" width="7.33203125" style="56" customWidth="1"/>
-    <col min="4864" max="4864" width="47.5" style="56" customWidth="1"/>
-    <col min="4865" max="4865" width="20.33203125" style="56" customWidth="1"/>
-    <col min="4866" max="4866" width="18" style="56" customWidth="1"/>
-    <col min="4867" max="4867" width="21.33203125" style="56" customWidth="1"/>
-    <col min="4868" max="5118" width="9.33203125" style="56"/>
-    <col min="5119" max="5119" width="7.33203125" style="56" customWidth="1"/>
-    <col min="5120" max="5120" width="47.5" style="56" customWidth="1"/>
-    <col min="5121" max="5121" width="20.33203125" style="56" customWidth="1"/>
-    <col min="5122" max="5122" width="18" style="56" customWidth="1"/>
-    <col min="5123" max="5123" width="21.33203125" style="56" customWidth="1"/>
-    <col min="5124" max="5374" width="9.33203125" style="56"/>
-    <col min="5375" max="5375" width="7.33203125" style="56" customWidth="1"/>
-    <col min="5376" max="5376" width="47.5" style="56" customWidth="1"/>
-    <col min="5377" max="5377" width="20.33203125" style="56" customWidth="1"/>
-    <col min="5378" max="5378" width="18" style="56" customWidth="1"/>
-    <col min="5379" max="5379" width="21.33203125" style="56" customWidth="1"/>
-    <col min="5380" max="5630" width="9.33203125" style="56"/>
-    <col min="5631" max="5631" width="7.33203125" style="56" customWidth="1"/>
-    <col min="5632" max="5632" width="47.5" style="56" customWidth="1"/>
-    <col min="5633" max="5633" width="20.33203125" style="56" customWidth="1"/>
-    <col min="5634" max="5634" width="18" style="56" customWidth="1"/>
-    <col min="5635" max="5635" width="21.33203125" style="56" customWidth="1"/>
-    <col min="5636" max="5886" width="9.33203125" style="56"/>
-    <col min="5887" max="5887" width="7.33203125" style="56" customWidth="1"/>
-    <col min="5888" max="5888" width="47.5" style="56" customWidth="1"/>
-    <col min="5889" max="5889" width="20.33203125" style="56" customWidth="1"/>
-    <col min="5890" max="5890" width="18" style="56" customWidth="1"/>
-    <col min="5891" max="5891" width="21.33203125" style="56" customWidth="1"/>
-    <col min="5892" max="6142" width="9.33203125" style="56"/>
-    <col min="6143" max="6143" width="7.33203125" style="56" customWidth="1"/>
-    <col min="6144" max="6144" width="47.5" style="56" customWidth="1"/>
-    <col min="6145" max="6145" width="20.33203125" style="56" customWidth="1"/>
-    <col min="6146" max="6146" width="18" style="56" customWidth="1"/>
-    <col min="6147" max="6147" width="21.33203125" style="56" customWidth="1"/>
-    <col min="6148" max="6398" width="9.33203125" style="56"/>
-    <col min="6399" max="6399" width="7.33203125" style="56" customWidth="1"/>
-    <col min="6400" max="6400" width="47.5" style="56" customWidth="1"/>
-    <col min="6401" max="6401" width="20.33203125" style="56" customWidth="1"/>
-    <col min="6402" max="6402" width="18" style="56" customWidth="1"/>
-    <col min="6403" max="6403" width="21.33203125" style="56" customWidth="1"/>
-    <col min="6404" max="6654" width="9.33203125" style="56"/>
-    <col min="6655" max="6655" width="7.33203125" style="56" customWidth="1"/>
-    <col min="6656" max="6656" width="47.5" style="56" customWidth="1"/>
-    <col min="6657" max="6657" width="20.33203125" style="56" customWidth="1"/>
-    <col min="6658" max="6658" width="18" style="56" customWidth="1"/>
-    <col min="6659" max="6659" width="21.33203125" style="56" customWidth="1"/>
-    <col min="6660" max="6910" width="9.33203125" style="56"/>
-    <col min="6911" max="6911" width="7.33203125" style="56" customWidth="1"/>
-    <col min="6912" max="6912" width="47.5" style="56" customWidth="1"/>
-    <col min="6913" max="6913" width="20.33203125" style="56" customWidth="1"/>
-    <col min="6914" max="6914" width="18" style="56" customWidth="1"/>
-    <col min="6915" max="6915" width="21.33203125" style="56" customWidth="1"/>
-    <col min="6916" max="7166" width="9.33203125" style="56"/>
-    <col min="7167" max="7167" width="7.33203125" style="56" customWidth="1"/>
-    <col min="7168" max="7168" width="47.5" style="56" customWidth="1"/>
-    <col min="7169" max="7169" width="20.33203125" style="56" customWidth="1"/>
-    <col min="7170" max="7170" width="18" style="56" customWidth="1"/>
-    <col min="7171" max="7171" width="21.33203125" style="56" customWidth="1"/>
-    <col min="7172" max="7422" width="9.33203125" style="56"/>
-    <col min="7423" max="7423" width="7.33203125" style="56" customWidth="1"/>
-    <col min="7424" max="7424" width="47.5" style="56" customWidth="1"/>
-    <col min="7425" max="7425" width="20.33203125" style="56" customWidth="1"/>
-    <col min="7426" max="7426" width="18" style="56" customWidth="1"/>
-    <col min="7427" max="7427" width="21.33203125" style="56" customWidth="1"/>
-    <col min="7428" max="7678" width="9.33203125" style="56"/>
-    <col min="7679" max="7679" width="7.33203125" style="56" customWidth="1"/>
-    <col min="7680" max="7680" width="47.5" style="56" customWidth="1"/>
-    <col min="7681" max="7681" width="20.33203125" style="56" customWidth="1"/>
-    <col min="7682" max="7682" width="18" style="56" customWidth="1"/>
-    <col min="7683" max="7683" width="21.33203125" style="56" customWidth="1"/>
-    <col min="7684" max="7934" width="9.33203125" style="56"/>
-    <col min="7935" max="7935" width="7.33203125" style="56" customWidth="1"/>
-    <col min="7936" max="7936" width="47.5" style="56" customWidth="1"/>
-    <col min="7937" max="7937" width="20.33203125" style="56" customWidth="1"/>
-    <col min="7938" max="7938" width="18" style="56" customWidth="1"/>
-    <col min="7939" max="7939" width="21.33203125" style="56" customWidth="1"/>
-    <col min="7940" max="8190" width="9.33203125" style="56"/>
-    <col min="8191" max="8191" width="7.33203125" style="56" customWidth="1"/>
-    <col min="8192" max="8192" width="47.5" style="56" customWidth="1"/>
-    <col min="8193" max="8193" width="20.33203125" style="56" customWidth="1"/>
-    <col min="8194" max="8194" width="18" style="56" customWidth="1"/>
-    <col min="8195" max="8195" width="21.33203125" style="56" customWidth="1"/>
-    <col min="8196" max="8446" width="9.33203125" style="56"/>
-    <col min="8447" max="8447" width="7.33203125" style="56" customWidth="1"/>
-    <col min="8448" max="8448" width="47.5" style="56" customWidth="1"/>
-    <col min="8449" max="8449" width="20.33203125" style="56" customWidth="1"/>
-    <col min="8450" max="8450" width="18" style="56" customWidth="1"/>
-    <col min="8451" max="8451" width="21.33203125" style="56" customWidth="1"/>
-    <col min="8452" max="8702" width="9.33203125" style="56"/>
-    <col min="8703" max="8703" width="7.33203125" style="56" customWidth="1"/>
-    <col min="8704" max="8704" width="47.5" style="56" customWidth="1"/>
-    <col min="8705" max="8705" width="20.33203125" style="56" customWidth="1"/>
-    <col min="8706" max="8706" width="18" style="56" customWidth="1"/>
-    <col min="8707" max="8707" width="21.33203125" style="56" customWidth="1"/>
-    <col min="8708" max="8958" width="9.33203125" style="56"/>
-    <col min="8959" max="8959" width="7.33203125" style="56" customWidth="1"/>
-    <col min="8960" max="8960" width="47.5" style="56" customWidth="1"/>
-    <col min="8961" max="8961" width="20.33203125" style="56" customWidth="1"/>
-    <col min="8962" max="8962" width="18" style="56" customWidth="1"/>
-    <col min="8963" max="8963" width="21.33203125" style="56" customWidth="1"/>
-    <col min="8964" max="9214" width="9.33203125" style="56"/>
-    <col min="9215" max="9215" width="7.33203125" style="56" customWidth="1"/>
-    <col min="9216" max="9216" width="47.5" style="56" customWidth="1"/>
-    <col min="9217" max="9217" width="20.33203125" style="56" customWidth="1"/>
-    <col min="9218" max="9218" width="18" style="56" customWidth="1"/>
-    <col min="9219" max="9219" width="21.33203125" style="56" customWidth="1"/>
-    <col min="9220" max="9470" width="9.33203125" style="56"/>
-    <col min="9471" max="9471" width="7.33203125" style="56" customWidth="1"/>
-    <col min="9472" max="9472" width="47.5" style="56" customWidth="1"/>
-    <col min="9473" max="9473" width="20.33203125" style="56" customWidth="1"/>
-    <col min="9474" max="9474" width="18" style="56" customWidth="1"/>
-    <col min="9475" max="9475" width="21.33203125" style="56" customWidth="1"/>
-    <col min="9476" max="9726" width="9.33203125" style="56"/>
-    <col min="9727" max="9727" width="7.33203125" style="56" customWidth="1"/>
-    <col min="9728" max="9728" width="47.5" style="56" customWidth="1"/>
-    <col min="9729" max="9729" width="20.33203125" style="56" customWidth="1"/>
-    <col min="9730" max="9730" width="18" style="56" customWidth="1"/>
-    <col min="9731" max="9731" width="21.33203125" style="56" customWidth="1"/>
-    <col min="9732" max="9982" width="9.33203125" style="56"/>
-    <col min="9983" max="9983" width="7.33203125" style="56" customWidth="1"/>
-    <col min="9984" max="9984" width="47.5" style="56" customWidth="1"/>
-    <col min="9985" max="9985" width="20.33203125" style="56" customWidth="1"/>
-    <col min="9986" max="9986" width="18" style="56" customWidth="1"/>
-    <col min="9987" max="9987" width="21.33203125" style="56" customWidth="1"/>
-    <col min="9988" max="10238" width="9.33203125" style="56"/>
-    <col min="10239" max="10239" width="7.33203125" style="56" customWidth="1"/>
-    <col min="10240" max="10240" width="47.5" style="56" customWidth="1"/>
-    <col min="10241" max="10241" width="20.33203125" style="56" customWidth="1"/>
-    <col min="10242" max="10242" width="18" style="56" customWidth="1"/>
-    <col min="10243" max="10243" width="21.33203125" style="56" customWidth="1"/>
-    <col min="10244" max="10494" width="9.33203125" style="56"/>
-    <col min="10495" max="10495" width="7.33203125" style="56" customWidth="1"/>
-    <col min="10496" max="10496" width="47.5" style="56" customWidth="1"/>
-    <col min="10497" max="10497" width="20.33203125" style="56" customWidth="1"/>
-    <col min="10498" max="10498" width="18" style="56" customWidth="1"/>
-    <col min="10499" max="10499" width="21.33203125" style="56" customWidth="1"/>
-    <col min="10500" max="10750" width="9.33203125" style="56"/>
-    <col min="10751" max="10751" width="7.33203125" style="56" customWidth="1"/>
-    <col min="10752" max="10752" width="47.5" style="56" customWidth="1"/>
-    <col min="10753" max="10753" width="20.33203125" style="56" customWidth="1"/>
-    <col min="10754" max="10754" width="18" style="56" customWidth="1"/>
-    <col min="10755" max="10755" width="21.33203125" style="56" customWidth="1"/>
-    <col min="10756" max="11006" width="9.33203125" style="56"/>
-    <col min="11007" max="11007" width="7.33203125" style="56" customWidth="1"/>
-    <col min="11008" max="11008" width="47.5" style="56" customWidth="1"/>
-    <col min="11009" max="11009" width="20.33203125" style="56" customWidth="1"/>
-    <col min="11010" max="11010" width="18" style="56" customWidth="1"/>
-    <col min="11011" max="11011" width="21.33203125" style="56" customWidth="1"/>
-    <col min="11012" max="11262" width="9.33203125" style="56"/>
-    <col min="11263" max="11263" width="7.33203125" style="56" customWidth="1"/>
-    <col min="11264" max="11264" width="47.5" style="56" customWidth="1"/>
-    <col min="11265" max="11265" width="20.33203125" style="56" customWidth="1"/>
-    <col min="11266" max="11266" width="18" style="56" customWidth="1"/>
-    <col min="11267" max="11267" width="21.33203125" style="56" customWidth="1"/>
-    <col min="11268" max="11518" width="9.33203125" style="56"/>
-    <col min="11519" max="11519" width="7.33203125" style="56" customWidth="1"/>
-    <col min="11520" max="11520" width="47.5" style="56" customWidth="1"/>
-    <col min="11521" max="11521" width="20.33203125" style="56" customWidth="1"/>
-    <col min="11522" max="11522" width="18" style="56" customWidth="1"/>
-    <col min="11523" max="11523" width="21.33203125" style="56" customWidth="1"/>
-    <col min="11524" max="11774" width="9.33203125" style="56"/>
-    <col min="11775" max="11775" width="7.33203125" style="56" customWidth="1"/>
-    <col min="11776" max="11776" width="47.5" style="56" customWidth="1"/>
-    <col min="11777" max="11777" width="20.33203125" style="56" customWidth="1"/>
-    <col min="11778" max="11778" width="18" style="56" customWidth="1"/>
-    <col min="11779" max="11779" width="21.33203125" style="56" customWidth="1"/>
-    <col min="11780" max="12030" width="9.33203125" style="56"/>
-    <col min="12031" max="12031" width="7.33203125" style="56" customWidth="1"/>
-    <col min="12032" max="12032" width="47.5" style="56" customWidth="1"/>
-    <col min="12033" max="12033" width="20.33203125" style="56" customWidth="1"/>
-    <col min="12034" max="12034" width="18" style="56" customWidth="1"/>
-    <col min="12035" max="12035" width="21.33203125" style="56" customWidth="1"/>
-    <col min="12036" max="12286" width="9.33203125" style="56"/>
-    <col min="12287" max="12287" width="7.33203125" style="56" customWidth="1"/>
-    <col min="12288" max="12288" width="47.5" style="56" customWidth="1"/>
-    <col min="12289" max="12289" width="20.33203125" style="56" customWidth="1"/>
-    <col min="12290" max="12290" width="18" style="56" customWidth="1"/>
-    <col min="12291" max="12291" width="21.33203125" style="56" customWidth="1"/>
-    <col min="12292" max="12542" width="9.33203125" style="56"/>
-    <col min="12543" max="12543" width="7.33203125" style="56" customWidth="1"/>
-    <col min="12544" max="12544" width="47.5" style="56" customWidth="1"/>
-    <col min="12545" max="12545" width="20.33203125" style="56" customWidth="1"/>
-    <col min="12546" max="12546" width="18" style="56" customWidth="1"/>
-    <col min="12547" max="12547" width="21.33203125" style="56" customWidth="1"/>
-    <col min="12548" max="12798" width="9.33203125" style="56"/>
-    <col min="12799" max="12799" width="7.33203125" style="56" customWidth="1"/>
-    <col min="12800" max="12800" width="47.5" style="56" customWidth="1"/>
-    <col min="12801" max="12801" width="20.33203125" style="56" customWidth="1"/>
-    <col min="12802" max="12802" width="18" style="56" customWidth="1"/>
-    <col min="12803" max="12803" width="21.33203125" style="56" customWidth="1"/>
-    <col min="12804" max="13054" width="9.33203125" style="56"/>
-    <col min="13055" max="13055" width="7.33203125" style="56" customWidth="1"/>
-    <col min="13056" max="13056" width="47.5" style="56" customWidth="1"/>
-    <col min="13057" max="13057" width="20.33203125" style="56" customWidth="1"/>
-    <col min="13058" max="13058" width="18" style="56" customWidth="1"/>
-    <col min="13059" max="13059" width="21.33203125" style="56" customWidth="1"/>
-    <col min="13060" max="13310" width="9.33203125" style="56"/>
-    <col min="13311" max="13311" width="7.33203125" style="56" customWidth="1"/>
-    <col min="13312" max="13312" width="47.5" style="56" customWidth="1"/>
-    <col min="13313" max="13313" width="20.33203125" style="56" customWidth="1"/>
-    <col min="13314" max="13314" width="18" style="56" customWidth="1"/>
-    <col min="13315" max="13315" width="21.33203125" style="56" customWidth="1"/>
-    <col min="13316" max="13566" width="9.33203125" style="56"/>
-    <col min="13567" max="13567" width="7.33203125" style="56" customWidth="1"/>
-    <col min="13568" max="13568" width="47.5" style="56" customWidth="1"/>
-    <col min="13569" max="13569" width="20.33203125" style="56" customWidth="1"/>
-    <col min="13570" max="13570" width="18" style="56" customWidth="1"/>
-    <col min="13571" max="13571" width="21.33203125" style="56" customWidth="1"/>
-    <col min="13572" max="13822" width="9.33203125" style="56"/>
-    <col min="13823" max="13823" width="7.33203125" style="56" customWidth="1"/>
-    <col min="13824" max="13824" width="47.5" style="56" customWidth="1"/>
-    <col min="13825" max="13825" width="20.33203125" style="56" customWidth="1"/>
-    <col min="13826" max="13826" width="18" style="56" customWidth="1"/>
-    <col min="13827" max="13827" width="21.33203125" style="56" customWidth="1"/>
-    <col min="13828" max="14078" width="9.33203125" style="56"/>
-    <col min="14079" max="14079" width="7.33203125" style="56" customWidth="1"/>
-    <col min="14080" max="14080" width="47.5" style="56" customWidth="1"/>
-    <col min="14081" max="14081" width="20.33203125" style="56" customWidth="1"/>
-    <col min="14082" max="14082" width="18" style="56" customWidth="1"/>
-    <col min="14083" max="14083" width="21.33203125" style="56" customWidth="1"/>
-    <col min="14084" max="14334" width="9.33203125" style="56"/>
-    <col min="14335" max="14335" width="7.33203125" style="56" customWidth="1"/>
-    <col min="14336" max="14336" width="47.5" style="56" customWidth="1"/>
-    <col min="14337" max="14337" width="20.33203125" style="56" customWidth="1"/>
-    <col min="14338" max="14338" width="18" style="56" customWidth="1"/>
-    <col min="14339" max="14339" width="21.33203125" style="56" customWidth="1"/>
-    <col min="14340" max="14590" width="9.33203125" style="56"/>
-    <col min="14591" max="14591" width="7.33203125" style="56" customWidth="1"/>
-    <col min="14592" max="14592" width="47.5" style="56" customWidth="1"/>
-    <col min="14593" max="14593" width="20.33203125" style="56" customWidth="1"/>
-    <col min="14594" max="14594" width="18" style="56" customWidth="1"/>
-    <col min="14595" max="14595" width="21.33203125" style="56" customWidth="1"/>
-    <col min="14596" max="14846" width="9.33203125" style="56"/>
-    <col min="14847" max="14847" width="7.33203125" style="56" customWidth="1"/>
-    <col min="14848" max="14848" width="47.5" style="56" customWidth="1"/>
-    <col min="14849" max="14849" width="20.33203125" style="56" customWidth="1"/>
-    <col min="14850" max="14850" width="18" style="56" customWidth="1"/>
-    <col min="14851" max="14851" width="21.33203125" style="56" customWidth="1"/>
-    <col min="14852" max="15102" width="9.33203125" style="56"/>
-    <col min="15103" max="15103" width="7.33203125" style="56" customWidth="1"/>
-    <col min="15104" max="15104" width="47.5" style="56" customWidth="1"/>
-    <col min="15105" max="15105" width="20.33203125" style="56" customWidth="1"/>
-    <col min="15106" max="15106" width="18" style="56" customWidth="1"/>
-    <col min="15107" max="15107" width="21.33203125" style="56" customWidth="1"/>
-    <col min="15108" max="15358" width="9.33203125" style="56"/>
-    <col min="15359" max="15359" width="7.33203125" style="56" customWidth="1"/>
-    <col min="15360" max="15360" width="47.5" style="56" customWidth="1"/>
-    <col min="15361" max="15361" width="20.33203125" style="56" customWidth="1"/>
-    <col min="15362" max="15362" width="18" style="56" customWidth="1"/>
-    <col min="15363" max="15363" width="21.33203125" style="56" customWidth="1"/>
-    <col min="15364" max="15614" width="9.33203125" style="56"/>
-    <col min="15615" max="15615" width="7.33203125" style="56" customWidth="1"/>
-    <col min="15616" max="15616" width="47.5" style="56" customWidth="1"/>
-    <col min="15617" max="15617" width="20.33203125" style="56" customWidth="1"/>
-    <col min="15618" max="15618" width="18" style="56" customWidth="1"/>
-    <col min="15619" max="15619" width="21.33203125" style="56" customWidth="1"/>
-    <col min="15620" max="15870" width="9.33203125" style="56"/>
-    <col min="15871" max="15871" width="7.33203125" style="56" customWidth="1"/>
-    <col min="15872" max="15872" width="47.5" style="56" customWidth="1"/>
-    <col min="15873" max="15873" width="20.33203125" style="56" customWidth="1"/>
-    <col min="15874" max="15874" width="18" style="56" customWidth="1"/>
-    <col min="15875" max="15875" width="21.33203125" style="56" customWidth="1"/>
-    <col min="15876" max="16126" width="9.33203125" style="56"/>
-    <col min="16127" max="16127" width="7.33203125" style="56" customWidth="1"/>
-    <col min="16128" max="16128" width="47.5" style="56" customWidth="1"/>
-    <col min="16129" max="16129" width="20.33203125" style="56" customWidth="1"/>
-    <col min="16130" max="16130" width="18" style="56" customWidth="1"/>
-    <col min="16131" max="16131" width="21.33203125" style="56" customWidth="1"/>
-    <col min="16132" max="16384" width="9.33203125" style="56"/>
+    <col min="1" max="1" width="7.33203125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="71.5" style="50" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" style="50" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="42"/>
+    <col min="5" max="5" width="14.1640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="254" width="9.33203125" style="42"/>
+    <col min="255" max="255" width="7.33203125" style="42" customWidth="1"/>
+    <col min="256" max="256" width="47.5" style="42" customWidth="1"/>
+    <col min="257" max="257" width="20.33203125" style="42" customWidth="1"/>
+    <col min="258" max="258" width="18" style="42" customWidth="1"/>
+    <col min="259" max="259" width="21.33203125" style="42" customWidth="1"/>
+    <col min="260" max="510" width="9.33203125" style="42"/>
+    <col min="511" max="511" width="7.33203125" style="42" customWidth="1"/>
+    <col min="512" max="512" width="47.5" style="42" customWidth="1"/>
+    <col min="513" max="513" width="20.33203125" style="42" customWidth="1"/>
+    <col min="514" max="514" width="18" style="42" customWidth="1"/>
+    <col min="515" max="515" width="21.33203125" style="42" customWidth="1"/>
+    <col min="516" max="766" width="9.33203125" style="42"/>
+    <col min="767" max="767" width="7.33203125" style="42" customWidth="1"/>
+    <col min="768" max="768" width="47.5" style="42" customWidth="1"/>
+    <col min="769" max="769" width="20.33203125" style="42" customWidth="1"/>
+    <col min="770" max="770" width="18" style="42" customWidth="1"/>
+    <col min="771" max="771" width="21.33203125" style="42" customWidth="1"/>
+    <col min="772" max="1022" width="9.33203125" style="42"/>
+    <col min="1023" max="1023" width="7.33203125" style="42" customWidth="1"/>
+    <col min="1024" max="1024" width="47.5" style="42" customWidth="1"/>
+    <col min="1025" max="1025" width="20.33203125" style="42" customWidth="1"/>
+    <col min="1026" max="1026" width="18" style="42" customWidth="1"/>
+    <col min="1027" max="1027" width="21.33203125" style="42" customWidth="1"/>
+    <col min="1028" max="1278" width="9.33203125" style="42"/>
+    <col min="1279" max="1279" width="7.33203125" style="42" customWidth="1"/>
+    <col min="1280" max="1280" width="47.5" style="42" customWidth="1"/>
+    <col min="1281" max="1281" width="20.33203125" style="42" customWidth="1"/>
+    <col min="1282" max="1282" width="18" style="42" customWidth="1"/>
+    <col min="1283" max="1283" width="21.33203125" style="42" customWidth="1"/>
+    <col min="1284" max="1534" width="9.33203125" style="42"/>
+    <col min="1535" max="1535" width="7.33203125" style="42" customWidth="1"/>
+    <col min="1536" max="1536" width="47.5" style="42" customWidth="1"/>
+    <col min="1537" max="1537" width="20.33203125" style="42" customWidth="1"/>
+    <col min="1538" max="1538" width="18" style="42" customWidth="1"/>
+    <col min="1539" max="1539" width="21.33203125" style="42" customWidth="1"/>
+    <col min="1540" max="1790" width="9.33203125" style="42"/>
+    <col min="1791" max="1791" width="7.33203125" style="42" customWidth="1"/>
+    <col min="1792" max="1792" width="47.5" style="42" customWidth="1"/>
+    <col min="1793" max="1793" width="20.33203125" style="42" customWidth="1"/>
+    <col min="1794" max="1794" width="18" style="42" customWidth="1"/>
+    <col min="1795" max="1795" width="21.33203125" style="42" customWidth="1"/>
+    <col min="1796" max="2046" width="9.33203125" style="42"/>
+    <col min="2047" max="2047" width="7.33203125" style="42" customWidth="1"/>
+    <col min="2048" max="2048" width="47.5" style="42" customWidth="1"/>
+    <col min="2049" max="2049" width="20.33203125" style="42" customWidth="1"/>
+    <col min="2050" max="2050" width="18" style="42" customWidth="1"/>
+    <col min="2051" max="2051" width="21.33203125" style="42" customWidth="1"/>
+    <col min="2052" max="2302" width="9.33203125" style="42"/>
+    <col min="2303" max="2303" width="7.33203125" style="42" customWidth="1"/>
+    <col min="2304" max="2304" width="47.5" style="42" customWidth="1"/>
+    <col min="2305" max="2305" width="20.33203125" style="42" customWidth="1"/>
+    <col min="2306" max="2306" width="18" style="42" customWidth="1"/>
+    <col min="2307" max="2307" width="21.33203125" style="42" customWidth="1"/>
+    <col min="2308" max="2558" width="9.33203125" style="42"/>
+    <col min="2559" max="2559" width="7.33203125" style="42" customWidth="1"/>
+    <col min="2560" max="2560" width="47.5" style="42" customWidth="1"/>
+    <col min="2561" max="2561" width="20.33203125" style="42" customWidth="1"/>
+    <col min="2562" max="2562" width="18" style="42" customWidth="1"/>
+    <col min="2563" max="2563" width="21.33203125" style="42" customWidth="1"/>
+    <col min="2564" max="2814" width="9.33203125" style="42"/>
+    <col min="2815" max="2815" width="7.33203125" style="42" customWidth="1"/>
+    <col min="2816" max="2816" width="47.5" style="42" customWidth="1"/>
+    <col min="2817" max="2817" width="20.33203125" style="42" customWidth="1"/>
+    <col min="2818" max="2818" width="18" style="42" customWidth="1"/>
+    <col min="2819" max="2819" width="21.33203125" style="42" customWidth="1"/>
+    <col min="2820" max="3070" width="9.33203125" style="42"/>
+    <col min="3071" max="3071" width="7.33203125" style="42" customWidth="1"/>
+    <col min="3072" max="3072" width="47.5" style="42" customWidth="1"/>
+    <col min="3073" max="3073" width="20.33203125" style="42" customWidth="1"/>
+    <col min="3074" max="3074" width="18" style="42" customWidth="1"/>
+    <col min="3075" max="3075" width="21.33203125" style="42" customWidth="1"/>
+    <col min="3076" max="3326" width="9.33203125" style="42"/>
+    <col min="3327" max="3327" width="7.33203125" style="42" customWidth="1"/>
+    <col min="3328" max="3328" width="47.5" style="42" customWidth="1"/>
+    <col min="3329" max="3329" width="20.33203125" style="42" customWidth="1"/>
+    <col min="3330" max="3330" width="18" style="42" customWidth="1"/>
+    <col min="3331" max="3331" width="21.33203125" style="42" customWidth="1"/>
+    <col min="3332" max="3582" width="9.33203125" style="42"/>
+    <col min="3583" max="3583" width="7.33203125" style="42" customWidth="1"/>
+    <col min="3584" max="3584" width="47.5" style="42" customWidth="1"/>
+    <col min="3585" max="3585" width="20.33203125" style="42" customWidth="1"/>
+    <col min="3586" max="3586" width="18" style="42" customWidth="1"/>
+    <col min="3587" max="3587" width="21.33203125" style="42" customWidth="1"/>
+    <col min="3588" max="3838" width="9.33203125" style="42"/>
+    <col min="3839" max="3839" width="7.33203125" style="42" customWidth="1"/>
+    <col min="3840" max="3840" width="47.5" style="42" customWidth="1"/>
+    <col min="3841" max="3841" width="20.33203125" style="42" customWidth="1"/>
+    <col min="3842" max="3842" width="18" style="42" customWidth="1"/>
+    <col min="3843" max="3843" width="21.33203125" style="42" customWidth="1"/>
+    <col min="3844" max="4094" width="9.33203125" style="42"/>
+    <col min="4095" max="4095" width="7.33203125" style="42" customWidth="1"/>
+    <col min="4096" max="4096" width="47.5" style="42" customWidth="1"/>
+    <col min="4097" max="4097" width="20.33203125" style="42" customWidth="1"/>
+    <col min="4098" max="4098" width="18" style="42" customWidth="1"/>
+    <col min="4099" max="4099" width="21.33203125" style="42" customWidth="1"/>
+    <col min="4100" max="4350" width="9.33203125" style="42"/>
+    <col min="4351" max="4351" width="7.33203125" style="42" customWidth="1"/>
+    <col min="4352" max="4352" width="47.5" style="42" customWidth="1"/>
+    <col min="4353" max="4353" width="20.33203125" style="42" customWidth="1"/>
+    <col min="4354" max="4354" width="18" style="42" customWidth="1"/>
+    <col min="4355" max="4355" width="21.33203125" style="42" customWidth="1"/>
+    <col min="4356" max="4606" width="9.33203125" style="42"/>
+    <col min="4607" max="4607" width="7.33203125" style="42" customWidth="1"/>
+    <col min="4608" max="4608" width="47.5" style="42" customWidth="1"/>
+    <col min="4609" max="4609" width="20.33203125" style="42" customWidth="1"/>
+    <col min="4610" max="4610" width="18" style="42" customWidth="1"/>
+    <col min="4611" max="4611" width="21.33203125" style="42" customWidth="1"/>
+    <col min="4612" max="4862" width="9.33203125" style="42"/>
+    <col min="4863" max="4863" width="7.33203125" style="42" customWidth="1"/>
+    <col min="4864" max="4864" width="47.5" style="42" customWidth="1"/>
+    <col min="4865" max="4865" width="20.33203125" style="42" customWidth="1"/>
+    <col min="4866" max="4866" width="18" style="42" customWidth="1"/>
+    <col min="4867" max="4867" width="21.33203125" style="42" customWidth="1"/>
+    <col min="4868" max="5118" width="9.33203125" style="42"/>
+    <col min="5119" max="5119" width="7.33203125" style="42" customWidth="1"/>
+    <col min="5120" max="5120" width="47.5" style="42" customWidth="1"/>
+    <col min="5121" max="5121" width="20.33203125" style="42" customWidth="1"/>
+    <col min="5122" max="5122" width="18" style="42" customWidth="1"/>
+    <col min="5123" max="5123" width="21.33203125" style="42" customWidth="1"/>
+    <col min="5124" max="5374" width="9.33203125" style="42"/>
+    <col min="5375" max="5375" width="7.33203125" style="42" customWidth="1"/>
+    <col min="5376" max="5376" width="47.5" style="42" customWidth="1"/>
+    <col min="5377" max="5377" width="20.33203125" style="42" customWidth="1"/>
+    <col min="5378" max="5378" width="18" style="42" customWidth="1"/>
+    <col min="5379" max="5379" width="21.33203125" style="42" customWidth="1"/>
+    <col min="5380" max="5630" width="9.33203125" style="42"/>
+    <col min="5631" max="5631" width="7.33203125" style="42" customWidth="1"/>
+    <col min="5632" max="5632" width="47.5" style="42" customWidth="1"/>
+    <col min="5633" max="5633" width="20.33203125" style="42" customWidth="1"/>
+    <col min="5634" max="5634" width="18" style="42" customWidth="1"/>
+    <col min="5635" max="5635" width="21.33203125" style="42" customWidth="1"/>
+    <col min="5636" max="5886" width="9.33203125" style="42"/>
+    <col min="5887" max="5887" width="7.33203125" style="42" customWidth="1"/>
+    <col min="5888" max="5888" width="47.5" style="42" customWidth="1"/>
+    <col min="5889" max="5889" width="20.33203125" style="42" customWidth="1"/>
+    <col min="5890" max="5890" width="18" style="42" customWidth="1"/>
+    <col min="5891" max="5891" width="21.33203125" style="42" customWidth="1"/>
+    <col min="5892" max="6142" width="9.33203125" style="42"/>
+    <col min="6143" max="6143" width="7.33203125" style="42" customWidth="1"/>
+    <col min="6144" max="6144" width="47.5" style="42" customWidth="1"/>
+    <col min="6145" max="6145" width="20.33203125" style="42" customWidth="1"/>
+    <col min="6146" max="6146" width="18" style="42" customWidth="1"/>
+    <col min="6147" max="6147" width="21.33203125" style="42" customWidth="1"/>
+    <col min="6148" max="6398" width="9.33203125" style="42"/>
+    <col min="6399" max="6399" width="7.33203125" style="42" customWidth="1"/>
+    <col min="6400" max="6400" width="47.5" style="42" customWidth="1"/>
+    <col min="6401" max="6401" width="20.33203125" style="42" customWidth="1"/>
+    <col min="6402" max="6402" width="18" style="42" customWidth="1"/>
+    <col min="6403" max="6403" width="21.33203125" style="42" customWidth="1"/>
+    <col min="6404" max="6654" width="9.33203125" style="42"/>
+    <col min="6655" max="6655" width="7.33203125" style="42" customWidth="1"/>
+    <col min="6656" max="6656" width="47.5" style="42" customWidth="1"/>
+    <col min="6657" max="6657" width="20.33203125" style="42" customWidth="1"/>
+    <col min="6658" max="6658" width="18" style="42" customWidth="1"/>
+    <col min="6659" max="6659" width="21.33203125" style="42" customWidth="1"/>
+    <col min="6660" max="6910" width="9.33203125" style="42"/>
+    <col min="6911" max="6911" width="7.33203125" style="42" customWidth="1"/>
+    <col min="6912" max="6912" width="47.5" style="42" customWidth="1"/>
+    <col min="6913" max="6913" width="20.33203125" style="42" customWidth="1"/>
+    <col min="6914" max="6914" width="18" style="42" customWidth="1"/>
+    <col min="6915" max="6915" width="21.33203125" style="42" customWidth="1"/>
+    <col min="6916" max="7166" width="9.33203125" style="42"/>
+    <col min="7167" max="7167" width="7.33203125" style="42" customWidth="1"/>
+    <col min="7168" max="7168" width="47.5" style="42" customWidth="1"/>
+    <col min="7169" max="7169" width="20.33203125" style="42" customWidth="1"/>
+    <col min="7170" max="7170" width="18" style="42" customWidth="1"/>
+    <col min="7171" max="7171" width="21.33203125" style="42" customWidth="1"/>
+    <col min="7172" max="7422" width="9.33203125" style="42"/>
+    <col min="7423" max="7423" width="7.33203125" style="42" customWidth="1"/>
+    <col min="7424" max="7424" width="47.5" style="42" customWidth="1"/>
+    <col min="7425" max="7425" width="20.33203125" style="42" customWidth="1"/>
+    <col min="7426" max="7426" width="18" style="42" customWidth="1"/>
+    <col min="7427" max="7427" width="21.33203125" style="42" customWidth="1"/>
+    <col min="7428" max="7678" width="9.33203125" style="42"/>
+    <col min="7679" max="7679" width="7.33203125" style="42" customWidth="1"/>
+    <col min="7680" max="7680" width="47.5" style="42" customWidth="1"/>
+    <col min="7681" max="7681" width="20.33203125" style="42" customWidth="1"/>
+    <col min="7682" max="7682" width="18" style="42" customWidth="1"/>
+    <col min="7683" max="7683" width="21.33203125" style="42" customWidth="1"/>
+    <col min="7684" max="7934" width="9.33203125" style="42"/>
+    <col min="7935" max="7935" width="7.33203125" style="42" customWidth="1"/>
+    <col min="7936" max="7936" width="47.5" style="42" customWidth="1"/>
+    <col min="7937" max="7937" width="20.33203125" style="42" customWidth="1"/>
+    <col min="7938" max="7938" width="18" style="42" customWidth="1"/>
+    <col min="7939" max="7939" width="21.33203125" style="42" customWidth="1"/>
+    <col min="7940" max="8190" width="9.33203125" style="42"/>
+    <col min="8191" max="8191" width="7.33203125" style="42" customWidth="1"/>
+    <col min="8192" max="8192" width="47.5" style="42" customWidth="1"/>
+    <col min="8193" max="8193" width="20.33203125" style="42" customWidth="1"/>
+    <col min="8194" max="8194" width="18" style="42" customWidth="1"/>
+    <col min="8195" max="8195" width="21.33203125" style="42" customWidth="1"/>
+    <col min="8196" max="8446" width="9.33203125" style="42"/>
+    <col min="8447" max="8447" width="7.33203125" style="42" customWidth="1"/>
+    <col min="8448" max="8448" width="47.5" style="42" customWidth="1"/>
+    <col min="8449" max="8449" width="20.33203125" style="42" customWidth="1"/>
+    <col min="8450" max="8450" width="18" style="42" customWidth="1"/>
+    <col min="8451" max="8451" width="21.33203125" style="42" customWidth="1"/>
+    <col min="8452" max="8702" width="9.33203125" style="42"/>
+    <col min="8703" max="8703" width="7.33203125" style="42" customWidth="1"/>
+    <col min="8704" max="8704" width="47.5" style="42" customWidth="1"/>
+    <col min="8705" max="8705" width="20.33203125" style="42" customWidth="1"/>
+    <col min="8706" max="8706" width="18" style="42" customWidth="1"/>
+    <col min="8707" max="8707" width="21.33203125" style="42" customWidth="1"/>
+    <col min="8708" max="8958" width="9.33203125" style="42"/>
+    <col min="8959" max="8959" width="7.33203125" style="42" customWidth="1"/>
+    <col min="8960" max="8960" width="47.5" style="42" customWidth="1"/>
+    <col min="8961" max="8961" width="20.33203125" style="42" customWidth="1"/>
+    <col min="8962" max="8962" width="18" style="42" customWidth="1"/>
+    <col min="8963" max="8963" width="21.33203125" style="42" customWidth="1"/>
+    <col min="8964" max="9214" width="9.33203125" style="42"/>
+    <col min="9215" max="9215" width="7.33203125" style="42" customWidth="1"/>
+    <col min="9216" max="9216" width="47.5" style="42" customWidth="1"/>
+    <col min="9217" max="9217" width="20.33203125" style="42" customWidth="1"/>
+    <col min="9218" max="9218" width="18" style="42" customWidth="1"/>
+    <col min="9219" max="9219" width="21.33203125" style="42" customWidth="1"/>
+    <col min="9220" max="9470" width="9.33203125" style="42"/>
+    <col min="9471" max="9471" width="7.33203125" style="42" customWidth="1"/>
+    <col min="9472" max="9472" width="47.5" style="42" customWidth="1"/>
+    <col min="9473" max="9473" width="20.33203125" style="42" customWidth="1"/>
+    <col min="9474" max="9474" width="18" style="42" customWidth="1"/>
+    <col min="9475" max="9475" width="21.33203125" style="42" customWidth="1"/>
+    <col min="9476" max="9726" width="9.33203125" style="42"/>
+    <col min="9727" max="9727" width="7.33203125" style="42" customWidth="1"/>
+    <col min="9728" max="9728" width="47.5" style="42" customWidth="1"/>
+    <col min="9729" max="9729" width="20.33203125" style="42" customWidth="1"/>
+    <col min="9730" max="9730" width="18" style="42" customWidth="1"/>
+    <col min="9731" max="9731" width="21.33203125" style="42" customWidth="1"/>
+    <col min="9732" max="9982" width="9.33203125" style="42"/>
+    <col min="9983" max="9983" width="7.33203125" style="42" customWidth="1"/>
+    <col min="9984" max="9984" width="47.5" style="42" customWidth="1"/>
+    <col min="9985" max="9985" width="20.33203125" style="42" customWidth="1"/>
+    <col min="9986" max="9986" width="18" style="42" customWidth="1"/>
+    <col min="9987" max="9987" width="21.33203125" style="42" customWidth="1"/>
+    <col min="9988" max="10238" width="9.33203125" style="42"/>
+    <col min="10239" max="10239" width="7.33203125" style="42" customWidth="1"/>
+    <col min="10240" max="10240" width="47.5" style="42" customWidth="1"/>
+    <col min="10241" max="10241" width="20.33203125" style="42" customWidth="1"/>
+    <col min="10242" max="10242" width="18" style="42" customWidth="1"/>
+    <col min="10243" max="10243" width="21.33203125" style="42" customWidth="1"/>
+    <col min="10244" max="10494" width="9.33203125" style="42"/>
+    <col min="10495" max="10495" width="7.33203125" style="42" customWidth="1"/>
+    <col min="10496" max="10496" width="47.5" style="42" customWidth="1"/>
+    <col min="10497" max="10497" width="20.33203125" style="42" customWidth="1"/>
+    <col min="10498" max="10498" width="18" style="42" customWidth="1"/>
+    <col min="10499" max="10499" width="21.33203125" style="42" customWidth="1"/>
+    <col min="10500" max="10750" width="9.33203125" style="42"/>
+    <col min="10751" max="10751" width="7.33203125" style="42" customWidth="1"/>
+    <col min="10752" max="10752" width="47.5" style="42" customWidth="1"/>
+    <col min="10753" max="10753" width="20.33203125" style="42" customWidth="1"/>
+    <col min="10754" max="10754" width="18" style="42" customWidth="1"/>
+    <col min="10755" max="10755" width="21.33203125" style="42" customWidth="1"/>
+    <col min="10756" max="11006" width="9.33203125" style="42"/>
+    <col min="11007" max="11007" width="7.33203125" style="42" customWidth="1"/>
+    <col min="11008" max="11008" width="47.5" style="42" customWidth="1"/>
+    <col min="11009" max="11009" width="20.33203125" style="42" customWidth="1"/>
+    <col min="11010" max="11010" width="18" style="42" customWidth="1"/>
+    <col min="11011" max="11011" width="21.33203125" style="42" customWidth="1"/>
+    <col min="11012" max="11262" width="9.33203125" style="42"/>
+    <col min="11263" max="11263" width="7.33203125" style="42" customWidth="1"/>
+    <col min="11264" max="11264" width="47.5" style="42" customWidth="1"/>
+    <col min="11265" max="11265" width="20.33203125" style="42" customWidth="1"/>
+    <col min="11266" max="11266" width="18" style="42" customWidth="1"/>
+    <col min="11267" max="11267" width="21.33203125" style="42" customWidth="1"/>
+    <col min="11268" max="11518" width="9.33203125" style="42"/>
+    <col min="11519" max="11519" width="7.33203125" style="42" customWidth="1"/>
+    <col min="11520" max="11520" width="47.5" style="42" customWidth="1"/>
+    <col min="11521" max="11521" width="20.33203125" style="42" customWidth="1"/>
+    <col min="11522" max="11522" width="18" style="42" customWidth="1"/>
+    <col min="11523" max="11523" width="21.33203125" style="42" customWidth="1"/>
+    <col min="11524" max="11774" width="9.33203125" style="42"/>
+    <col min="11775" max="11775" width="7.33203125" style="42" customWidth="1"/>
+    <col min="11776" max="11776" width="47.5" style="42" customWidth="1"/>
+    <col min="11777" max="11777" width="20.33203125" style="42" customWidth="1"/>
+    <col min="11778" max="11778" width="18" style="42" customWidth="1"/>
+    <col min="11779" max="11779" width="21.33203125" style="42" customWidth="1"/>
+    <col min="11780" max="12030" width="9.33203125" style="42"/>
+    <col min="12031" max="12031" width="7.33203125" style="42" customWidth="1"/>
+    <col min="12032" max="12032" width="47.5" style="42" customWidth="1"/>
+    <col min="12033" max="12033" width="20.33203125" style="42" customWidth="1"/>
+    <col min="12034" max="12034" width="18" style="42" customWidth="1"/>
+    <col min="12035" max="12035" width="21.33203125" style="42" customWidth="1"/>
+    <col min="12036" max="12286" width="9.33203125" style="42"/>
+    <col min="12287" max="12287" width="7.33203125" style="42" customWidth="1"/>
+    <col min="12288" max="12288" width="47.5" style="42" customWidth="1"/>
+    <col min="12289" max="12289" width="20.33203125" style="42" customWidth="1"/>
+    <col min="12290" max="12290" width="18" style="42" customWidth="1"/>
+    <col min="12291" max="12291" width="21.33203125" style="42" customWidth="1"/>
+    <col min="12292" max="12542" width="9.33203125" style="42"/>
+    <col min="12543" max="12543" width="7.33203125" style="42" customWidth="1"/>
+    <col min="12544" max="12544" width="47.5" style="42" customWidth="1"/>
+    <col min="12545" max="12545" width="20.33203125" style="42" customWidth="1"/>
+    <col min="12546" max="12546" width="18" style="42" customWidth="1"/>
+    <col min="12547" max="12547" width="21.33203125" style="42" customWidth="1"/>
+    <col min="12548" max="12798" width="9.33203125" style="42"/>
+    <col min="12799" max="12799" width="7.33203125" style="42" customWidth="1"/>
+    <col min="12800" max="12800" width="47.5" style="42" customWidth="1"/>
+    <col min="12801" max="12801" width="20.33203125" style="42" customWidth="1"/>
+    <col min="12802" max="12802" width="18" style="42" customWidth="1"/>
+    <col min="12803" max="12803" width="21.33203125" style="42" customWidth="1"/>
+    <col min="12804" max="13054" width="9.33203125" style="42"/>
+    <col min="13055" max="13055" width="7.33203125" style="42" customWidth="1"/>
+    <col min="13056" max="13056" width="47.5" style="42" customWidth="1"/>
+    <col min="13057" max="13057" width="20.33203125" style="42" customWidth="1"/>
+    <col min="13058" max="13058" width="18" style="42" customWidth="1"/>
+    <col min="13059" max="13059" width="21.33203125" style="42" customWidth="1"/>
+    <col min="13060" max="13310" width="9.33203125" style="42"/>
+    <col min="13311" max="13311" width="7.33203125" style="42" customWidth="1"/>
+    <col min="13312" max="13312" width="47.5" style="42" customWidth="1"/>
+    <col min="13313" max="13313" width="20.33203125" style="42" customWidth="1"/>
+    <col min="13314" max="13314" width="18" style="42" customWidth="1"/>
+    <col min="13315" max="13315" width="21.33203125" style="42" customWidth="1"/>
+    <col min="13316" max="13566" width="9.33203125" style="42"/>
+    <col min="13567" max="13567" width="7.33203125" style="42" customWidth="1"/>
+    <col min="13568" max="13568" width="47.5" style="42" customWidth="1"/>
+    <col min="13569" max="13569" width="20.33203125" style="42" customWidth="1"/>
+    <col min="13570" max="13570" width="18" style="42" customWidth="1"/>
+    <col min="13571" max="13571" width="21.33203125" style="42" customWidth="1"/>
+    <col min="13572" max="13822" width="9.33203125" style="42"/>
+    <col min="13823" max="13823" width="7.33203125" style="42" customWidth="1"/>
+    <col min="13824" max="13824" width="47.5" style="42" customWidth="1"/>
+    <col min="13825" max="13825" width="20.33203125" style="42" customWidth="1"/>
+    <col min="13826" max="13826" width="18" style="42" customWidth="1"/>
+    <col min="13827" max="13827" width="21.33203125" style="42" customWidth="1"/>
+    <col min="13828" max="14078" width="9.33203125" style="42"/>
+    <col min="14079" max="14079" width="7.33203125" style="42" customWidth="1"/>
+    <col min="14080" max="14080" width="47.5" style="42" customWidth="1"/>
+    <col min="14081" max="14081" width="20.33203125" style="42" customWidth="1"/>
+    <col min="14082" max="14082" width="18" style="42" customWidth="1"/>
+    <col min="14083" max="14083" width="21.33203125" style="42" customWidth="1"/>
+    <col min="14084" max="14334" width="9.33203125" style="42"/>
+    <col min="14335" max="14335" width="7.33203125" style="42" customWidth="1"/>
+    <col min="14336" max="14336" width="47.5" style="42" customWidth="1"/>
+    <col min="14337" max="14337" width="20.33203125" style="42" customWidth="1"/>
+    <col min="14338" max="14338" width="18" style="42" customWidth="1"/>
+    <col min="14339" max="14339" width="21.33203125" style="42" customWidth="1"/>
+    <col min="14340" max="14590" width="9.33203125" style="42"/>
+    <col min="14591" max="14591" width="7.33203125" style="42" customWidth="1"/>
+    <col min="14592" max="14592" width="47.5" style="42" customWidth="1"/>
+    <col min="14593" max="14593" width="20.33203125" style="42" customWidth="1"/>
+    <col min="14594" max="14594" width="18" style="42" customWidth="1"/>
+    <col min="14595" max="14595" width="21.33203125" style="42" customWidth="1"/>
+    <col min="14596" max="14846" width="9.33203125" style="42"/>
+    <col min="14847" max="14847" width="7.33203125" style="42" customWidth="1"/>
+    <col min="14848" max="14848" width="47.5" style="42" customWidth="1"/>
+    <col min="14849" max="14849" width="20.33203125" style="42" customWidth="1"/>
+    <col min="14850" max="14850" width="18" style="42" customWidth="1"/>
+    <col min="14851" max="14851" width="21.33203125" style="42" customWidth="1"/>
+    <col min="14852" max="15102" width="9.33203125" style="42"/>
+    <col min="15103" max="15103" width="7.33203125" style="42" customWidth="1"/>
+    <col min="15104" max="15104" width="47.5" style="42" customWidth="1"/>
+    <col min="15105" max="15105" width="20.33203125" style="42" customWidth="1"/>
+    <col min="15106" max="15106" width="18" style="42" customWidth="1"/>
+    <col min="15107" max="15107" width="21.33203125" style="42" customWidth="1"/>
+    <col min="15108" max="15358" width="9.33203125" style="42"/>
+    <col min="15359" max="15359" width="7.33203125" style="42" customWidth="1"/>
+    <col min="15360" max="15360" width="47.5" style="42" customWidth="1"/>
+    <col min="15361" max="15361" width="20.33203125" style="42" customWidth="1"/>
+    <col min="15362" max="15362" width="18" style="42" customWidth="1"/>
+    <col min="15363" max="15363" width="21.33203125" style="42" customWidth="1"/>
+    <col min="15364" max="15614" width="9.33203125" style="42"/>
+    <col min="15615" max="15615" width="7.33203125" style="42" customWidth="1"/>
+    <col min="15616" max="15616" width="47.5" style="42" customWidth="1"/>
+    <col min="15617" max="15617" width="20.33203125" style="42" customWidth="1"/>
+    <col min="15618" max="15618" width="18" style="42" customWidth="1"/>
+    <col min="15619" max="15619" width="21.33203125" style="42" customWidth="1"/>
+    <col min="15620" max="15870" width="9.33203125" style="42"/>
+    <col min="15871" max="15871" width="7.33203125" style="42" customWidth="1"/>
+    <col min="15872" max="15872" width="47.5" style="42" customWidth="1"/>
+    <col min="15873" max="15873" width="20.33203125" style="42" customWidth="1"/>
+    <col min="15874" max="15874" width="18" style="42" customWidth="1"/>
+    <col min="15875" max="15875" width="21.33203125" style="42" customWidth="1"/>
+    <col min="15876" max="16126" width="9.33203125" style="42"/>
+    <col min="16127" max="16127" width="7.33203125" style="42" customWidth="1"/>
+    <col min="16128" max="16128" width="47.5" style="42" customWidth="1"/>
+    <col min="16129" max="16129" width="20.33203125" style="42" customWidth="1"/>
+    <col min="16130" max="16130" width="18" style="42" customWidth="1"/>
+    <col min="16131" max="16131" width="21.33203125" style="42" customWidth="1"/>
+    <col min="16132" max="16384" width="9.33203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:3" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="C11" s="48"/>
-    </row>
-    <row r="12" spans="1:3" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="C12" s="48"/>
-    </row>
-    <row r="13" spans="1:3" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="C13" s="48"/>
-    </row>
-    <row r="14" spans="1:3" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="C14" s="48"/>
-    </row>
-    <row r="15" spans="1:3" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
+    <row r="11" spans="1:3" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+      <c r="C11" s="35"/>
+    </row>
+    <row r="12" spans="1:3" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="C12" s="35"/>
+    </row>
+    <row r="13" spans="1:3" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
+      <c r="C13" s="35"/>
+    </row>
+    <row r="14" spans="1:3" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
+      <c r="C14" s="35"/>
+    </row>
+    <row r="15" spans="1:3" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="37">
         <v>45791</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:3" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="51"/>
-    </row>
-    <row r="17" spans="1:3" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
-      <c r="C17" s="51"/>
-    </row>
-    <row r="18" spans="1:3" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
-      <c r="C18" s="51"/>
-    </row>
-    <row r="19" spans="1:3" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="38"/>
+    </row>
+    <row r="17" spans="1:3" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="39"/>
+      <c r="C17" s="38"/>
+    </row>
+    <row r="18" spans="1:3" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="39"/>
+      <c r="C18" s="38"/>
+    </row>
+    <row r="19" spans="1:3" s="34" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-    </row>
-    <row r="20" spans="1:3" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+    </row>
+    <row r="20" spans="1:3" s="34" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57">
+    <row r="22" spans="1:3" s="46" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="43">
         <v>1</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="59">
+      <c r="C22" s="45">
         <f>'Table 1'!K54</f>
         <v>6371430</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="60" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
+    <row r="23" spans="1:3" s="46" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="43">
         <v>2</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="59">
+      <c r="C23" s="45">
         <v>3042315</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="60" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="57">
+    <row r="24" spans="1:3" s="46" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="43">
         <v>3</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="45">
         <v>246000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="60" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57">
+    <row r="25" spans="1:3" s="46" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="43">
         <v>4</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="59">
+      <c r="C25" s="45">
         <v>2965115</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="60" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61" t="s">
+    <row r="26" spans="1:3" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="62">
+      <c r="C26" s="48">
         <f>SUM(C22:C25)</f>
         <v>12624860</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="60" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
+    <row r="27" spans="1:3" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+    </row>
+    <row r="29" spans="1:3" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1891,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1909,34 +1945,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1954,19 +1990,19 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -1982,102 +2018,102 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="44" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44" t="s">
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="44" t="s">
+      <c r="F8" s="62"/>
+      <c r="G8" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="44"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
     </row>
     <row r="10" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
+      <c r="A11" s="19">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2085,1344 +2121,1338 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
+      <c r="A12" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="24">
         <v>1</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="25">
         <v>155000</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="25">
         <v>8000</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31">
+      <c r="G12" s="25"/>
+      <c r="H12" s="25">
         <f>G12*E12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="25">
         <v>2</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="25">
         <f>I12*F12</f>
         <v>16000</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="25">
         <f>J12+H12</f>
         <v>16000</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
+      <c r="A13" s="20">
         <v>1.2</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="24">
         <v>4</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="25">
         <v>251000</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="25">
         <v>8000</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="25">
         <v>4</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="25">
         <f>G13*E13</f>
         <v>1004000</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="25">
         <v>4</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="25">
         <f>I13*F13</f>
         <v>32000</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="25">
         <f>J13+H13</f>
         <v>1036000</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="8" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32">
+      <c r="A14" s="26">
         <v>2</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26">
+      <c r="A15" s="20">
         <v>2.1</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="24">
         <v>10</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="25">
         <v>2000</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="25">
         <v>500</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="25">
         <v>57</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="25">
         <f t="shared" ref="H15:H16" si="0">G15*E15</f>
         <v>114000</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="25">
         <v>57</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="25">
         <f t="shared" ref="J15:J16" si="1">I15*F15</f>
         <v>28500</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="25">
         <f t="shared" ref="K15:K16" si="2">J15+H15</f>
         <v>142500</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26">
+      <c r="A16" s="20">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="24">
         <v>245</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="25">
         <v>2700</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="25">
         <v>500</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="25">
         <v>257</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="25">
         <f t="shared" si="0"/>
         <v>693900</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="25">
         <v>257</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="25">
         <f t="shared" si="1"/>
         <v>128500</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="25">
         <f t="shared" si="2"/>
         <v>822400</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="8" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32">
+      <c r="A17" s="26">
         <v>3</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:11" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26">
+      <c r="A18" s="20">
         <v>3.1</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="24">
         <v>1</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="28">
         <v>750000</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="28">
         <v>10000</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="28">
         <v>1</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="25">
         <f>G18*E18</f>
         <v>750000</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="25">
         <v>1</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="25">
         <f>I18*F18</f>
         <v>10000</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="25">
         <f>J18+H18</f>
         <v>760000</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="8" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32">
+      <c r="A19" s="26">
         <v>4</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="24">
         <v>1</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="25">
         <v>200000</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="25">
         <v>30000</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="25">
         <v>1</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="25">
         <f>G19*E19</f>
         <v>200000</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="25">
         <v>1</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="25">
         <f>I19*F19</f>
         <v>30000</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="25">
         <f>J19+H19</f>
         <v>230000</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="8" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32">
+      <c r="A20" s="26">
         <v>5</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:11" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26">
+      <c r="A21" s="20">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="24">
         <v>100</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="28">
         <v>450</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="28">
         <v>100</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="28">
         <v>110</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="25">
         <f t="shared" ref="H21:H23" si="3">G21*E21</f>
         <v>49500</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="25">
         <v>110</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="25">
         <f t="shared" ref="J21:J23" si="4">I21*F21</f>
         <v>11000</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="25">
         <f t="shared" ref="K21:K23" si="5">J21+H21</f>
         <v>60500</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26">
+      <c r="A22" s="20">
         <v>5.2</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="24">
         <v>32</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="25">
         <v>600</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="25">
         <v>100</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="25">
         <v>70</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="25">
         <f t="shared" si="3"/>
         <v>42000</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="25">
         <v>70</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="25">
         <f t="shared" si="4"/>
         <v>7000</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="25">
         <f t="shared" si="5"/>
         <v>49000</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="8" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32">
+      <c r="A23" s="26">
         <v>6</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="24">
         <v>680</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="25">
         <v>1150</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="25">
         <v>100</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="25">
         <v>921</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="25">
         <f t="shared" si="3"/>
         <v>1059150</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="25">
         <v>921</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="25">
         <f t="shared" si="4"/>
         <v>92100</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K23" s="25">
         <f t="shared" si="5"/>
         <v>1151250</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="8" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32">
+      <c r="A24" s="26">
         <v>7</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="24">
         <v>714</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="25">
         <v>150</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="25">
         <v>50</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="25">
         <v>921</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="25">
         <f>G24*E24</f>
         <v>138150</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="25">
         <v>921</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="25">
         <f>I24*F24</f>
         <v>46050</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K24" s="25">
         <f>J24+H24</f>
         <v>184200</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="8" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32">
+      <c r="A25" s="26">
         <v>8</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="24">
         <v>820</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="25">
         <v>400</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="25">
         <v>60</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="25">
         <v>968</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="25">
         <f>G25*E25</f>
         <v>387200</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="25">
         <v>968</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="25">
         <f>I25*F25</f>
         <v>58080</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="25">
         <f>J25+H25</f>
         <v>445280</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="8" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32">
+      <c r="A26" s="26">
         <v>9</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="24">
         <v>785</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="25">
         <v>380</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="25">
         <v>60</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="25">
         <v>1000</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="25">
         <f>G26*E26</f>
         <v>380000</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="25">
         <v>1000</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="25">
         <f>I26*F26</f>
         <v>60000</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="25">
         <f>J26+H26</f>
         <v>440000</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="8" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30">
+      <c r="A27" s="24">
         <v>10</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
     </row>
     <row r="28" spans="1:11" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="24">
         <v>1</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="28">
         <v>465000</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="28">
         <v>8000</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="31">
+      <c r="G28" s="28"/>
+      <c r="H28" s="25">
         <f t="shared" ref="H28:H31" si="6">G28*E28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="25">
         <v>1</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="25">
         <f t="shared" ref="J28:J31" si="7">I28*F28</f>
         <v>8000</v>
       </c>
-      <c r="K28" s="31">
+      <c r="K28" s="25">
         <f t="shared" ref="K28:K31" si="8">J28+H28</f>
         <v>8000</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="8" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="24">
         <v>1</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="25">
         <v>505000</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="25">
         <v>8000</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31">
+      <c r="G29" s="25"/>
+      <c r="H29" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I29" s="25">
         <v>1</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J29" s="25">
         <f t="shared" si="7"/>
         <v>8000</v>
       </c>
-      <c r="K29" s="31">
+      <c r="K29" s="25">
         <f t="shared" si="8"/>
         <v>8000</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="24">
         <v>1</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="25">
         <v>535000</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="25">
         <v>10000</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31">
+      <c r="G30" s="25"/>
+      <c r="H30" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I30" s="25">
         <v>1</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="25">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="K30" s="31">
+      <c r="K30" s="25">
         <f t="shared" si="8"/>
         <v>10000</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="24">
         <v>1</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="25">
         <v>560000</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="25">
         <v>10000</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31">
+      <c r="G31" s="25"/>
+      <c r="H31" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I31" s="25">
         <v>1</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="25">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="K31" s="31">
+      <c r="K31" s="25">
         <f t="shared" si="8"/>
         <v>10000</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A32" s="30">
+      <c r="A32" s="24">
         <v>11</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
     </row>
     <row r="33" spans="1:11" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="24">
         <v>1</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="28">
         <v>515000</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="28">
         <v>10000</v>
       </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="31">
+      <c r="G33" s="28"/>
+      <c r="H33" s="25">
         <f t="shared" ref="H33:H34" si="9">G33*E33</f>
         <v>0</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I33" s="25">
         <v>1</v>
       </c>
-      <c r="J33" s="31">
+      <c r="J33" s="25">
         <f t="shared" ref="J33:J34" si="10">I33*F33</f>
         <v>10000</v>
       </c>
-      <c r="K33" s="31">
+      <c r="K33" s="25">
         <f t="shared" ref="K33:K34" si="11">J33+H33</f>
         <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="24">
         <v>1</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="25">
         <v>1105000</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="25">
         <v>15000</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31">
+      <c r="G34" s="25"/>
+      <c r="H34" s="25">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I34" s="31">
+      <c r="I34" s="25">
         <v>1</v>
       </c>
-      <c r="J34" s="31">
+      <c r="J34" s="25">
         <f t="shared" si="10"/>
         <v>15000</v>
       </c>
-      <c r="K34" s="31">
+      <c r="K34" s="25">
         <f t="shared" si="11"/>
         <v>15000</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="8" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30">
+      <c r="A35" s="24">
         <v>12</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
     </row>
     <row r="36" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="24">
         <v>1</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="28">
         <v>75000</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="28">
         <v>1000</v>
       </c>
-      <c r="G36" s="34">
+      <c r="G36" s="28">
         <v>1</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="25">
         <f t="shared" ref="H36" si="12">G36*E36</f>
         <v>75000</v>
       </c>
-      <c r="I36" s="31">
+      <c r="I36" s="25">
         <v>1</v>
       </c>
-      <c r="J36" s="31">
+      <c r="J36" s="25">
         <f t="shared" ref="J36" si="13">I36*F36</f>
         <v>1000</v>
       </c>
-      <c r="K36" s="31">
+      <c r="K36" s="25">
         <f t="shared" ref="K36" si="14">J36+H36</f>
         <v>76000</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="8" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="24">
         <v>1</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="25">
         <v>115000</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="25">
         <v>1000</v>
       </c>
-      <c r="G37" s="31">
+      <c r="G37" s="25">
         <v>2</v>
       </c>
-      <c r="H37" s="31">
-        <f t="shared" ref="H36:H37" si="15">G37*E37</f>
+      <c r="H37" s="25">
+        <f t="shared" ref="H37" si="15">G37*E37</f>
         <v>230000</v>
       </c>
-      <c r="I37" s="31">
+      <c r="I37" s="25">
         <v>2</v>
       </c>
-      <c r="J37" s="31">
-        <f t="shared" ref="J36:J37" si="16">I37*F37</f>
+      <c r="J37" s="25">
+        <f t="shared" ref="J37" si="16">I37*F37</f>
         <v>2000</v>
       </c>
-      <c r="K37" s="31">
-        <f t="shared" ref="K36:K37" si="17">J37+H37</f>
+      <c r="K37" s="25">
+        <f t="shared" ref="K37" si="17">J37+H37</f>
         <v>232000</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="8" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30">
+      <c r="A38" s="24">
         <v>13</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
-      <c r="B39" s="28" t="s">
+      <c r="A39" s="21"/>
+      <c r="B39" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="24">
         <v>2</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="28">
         <v>4000</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="28">
         <v>1000</v>
       </c>
-      <c r="G39" s="34">
+      <c r="G39" s="28">
         <v>2</v>
       </c>
-      <c r="H39" s="31">
+      <c r="H39" s="25">
         <f t="shared" ref="H39:H40" si="18">G39*E39</f>
         <v>8000</v>
       </c>
-      <c r="I39" s="31">
+      <c r="I39" s="25">
         <v>2</v>
       </c>
-      <c r="J39" s="31">
+      <c r="J39" s="25">
         <f t="shared" ref="J39:J40" si="19">I39*F39</f>
         <v>2000</v>
       </c>
-      <c r="K39" s="31">
+      <c r="K39" s="25">
         <f t="shared" ref="K39:K40" si="20">J39+H39</f>
         <v>10000</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28" t="s">
+      <c r="A40" s="21"/>
+      <c r="B40" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="24">
         <v>2</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="25">
         <v>12500</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F40" s="25">
         <v>1000</v>
       </c>
-      <c r="G40" s="31">
+      <c r="G40" s="25">
         <v>4</v>
       </c>
-      <c r="H40" s="31">
+      <c r="H40" s="25">
         <f t="shared" si="18"/>
         <v>50000</v>
       </c>
-      <c r="I40" s="31">
+      <c r="I40" s="25">
         <v>4</v>
       </c>
-      <c r="J40" s="31">
+      <c r="J40" s="25">
         <f t="shared" si="19"/>
         <v>4000</v>
       </c>
-      <c r="K40" s="31">
+      <c r="K40" s="25">
         <f t="shared" si="20"/>
         <v>54000</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A41" s="30">
+      <c r="A41" s="24">
         <v>14</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
     </row>
     <row r="42" spans="1:11" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28" t="s">
+      <c r="A42" s="21"/>
+      <c r="B42" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
     </row>
     <row r="43" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28" t="s">
+      <c r="A43" s="21"/>
+      <c r="B43" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="24">
         <v>2</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="29">
         <v>4500</v>
       </c>
-      <c r="F43" s="35">
+      <c r="F43" s="29">
         <v>1000</v>
       </c>
-      <c r="G43" s="35">
+      <c r="G43" s="29">
         <v>2</v>
       </c>
-      <c r="H43" s="31">
+      <c r="H43" s="25">
         <f>G43*E43</f>
         <v>9000</v>
       </c>
-      <c r="I43" s="31">
+      <c r="I43" s="25">
         <v>2</v>
       </c>
-      <c r="J43" s="31">
+      <c r="J43" s="25">
         <f>I43*F43</f>
         <v>2000</v>
       </c>
-      <c r="K43" s="31">
+      <c r="K43" s="25">
         <f>J43+H43</f>
         <v>11000</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
     </row>
     <row r="45" spans="1:11" s="8" customFormat="1" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="30">
+      <c r="D45" s="24">
         <v>5</v>
       </c>
-      <c r="E45" s="34">
+      <c r="E45" s="28">
         <v>24500</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="28">
         <v>1000</v>
       </c>
-      <c r="G45" s="34">
+      <c r="G45" s="28">
         <v>5</v>
       </c>
-      <c r="H45" s="31">
+      <c r="H45" s="25">
         <f>G45*E45</f>
         <v>122500</v>
       </c>
-      <c r="I45" s="31">
+      <c r="I45" s="25">
         <v>5</v>
       </c>
-      <c r="J45" s="31">
+      <c r="J45" s="25">
         <f>I45*F45</f>
         <v>5000</v>
       </c>
-      <c r="K45" s="31">
+      <c r="K45" s="25">
         <f>J45+H45</f>
         <v>127500</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.2">
-      <c r="A46" s="30">
+      <c r="A46" s="24">
         <v>15</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="30">
+      <c r="D46" s="24">
         <v>3</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="25">
         <v>35000</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F46" s="25">
         <v>2000</v>
       </c>
-      <c r="G46" s="31">
+      <c r="G46" s="25">
         <v>3</v>
       </c>
-      <c r="H46" s="31">
+      <c r="H46" s="25">
         <f>G46*E46</f>
         <v>105000</v>
       </c>
-      <c r="I46" s="31">
+      <c r="I46" s="25">
         <v>3</v>
       </c>
-      <c r="J46" s="31">
+      <c r="J46" s="25">
         <f>I46*F46</f>
         <v>6000</v>
       </c>
-      <c r="K46" s="31">
+      <c r="K46" s="25">
         <f>J46+H46</f>
         <v>111000</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A47" s="30">
+      <c r="A47" s="24">
         <v>16</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
     </row>
     <row r="48" spans="1:11" s="8" customFormat="1" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28" t="s">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="30">
+      <c r="D48" s="24">
         <v>22</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="28">
         <v>600</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="28">
         <v>100</v>
       </c>
-      <c r="G48" s="34">
+      <c r="G48" s="28">
         <v>110</v>
       </c>
-      <c r="H48" s="31">
+      <c r="H48" s="25">
         <f>G48*E48</f>
         <v>66000</v>
       </c>
-      <c r="I48" s="31">
+      <c r="I48" s="25">
         <v>110</v>
       </c>
-      <c r="J48" s="31">
+      <c r="J48" s="25">
         <f>I48*F48</f>
         <v>11000</v>
       </c>
-      <c r="K48" s="31">
+      <c r="K48" s="25">
         <f>J48+H48</f>
         <v>77000</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A49" s="30">
+      <c r="A49" s="24">
         <v>17</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
     </row>
     <row r="50" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="28" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="30">
+      <c r="D50" s="24">
         <v>6</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50" s="28">
         <v>5000</v>
       </c>
-      <c r="F50" s="34">
+      <c r="F50" s="28">
         <v>800</v>
       </c>
-      <c r="G50" s="34">
+      <c r="G50" s="28">
         <v>6</v>
       </c>
-      <c r="H50" s="31">
+      <c r="H50" s="25">
         <f>G50*E50</f>
         <v>30000</v>
       </c>
-      <c r="I50" s="31">
+      <c r="I50" s="25">
         <v>6</v>
       </c>
-      <c r="J50" s="31">
+      <c r="J50" s="25">
         <f>I50*F50</f>
         <v>4800</v>
       </c>
-      <c r="K50" s="31">
+      <c r="K50" s="25">
         <f>J50+H50</f>
         <v>34800</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.2">
-      <c r="A51" s="30">
+      <c r="A51" s="24">
         <v>18</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="30">
+      <c r="D51" s="24">
         <v>1</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="25">
         <v>85000</v>
       </c>
-      <c r="F51" s="31">
+      <c r="F51" s="25">
         <v>45000</v>
       </c>
-      <c r="G51" s="31">
+      <c r="G51" s="25">
         <v>1</v>
       </c>
-      <c r="H51" s="31">
+      <c r="H51" s="25">
         <f>G51*E51</f>
         <v>85000</v>
       </c>
-      <c r="I51" s="31">
+      <c r="I51" s="25">
         <v>1</v>
       </c>
-      <c r="J51" s="31">
+      <c r="J51" s="25">
         <f>I51*F51</f>
         <v>45000</v>
       </c>
-      <c r="K51" s="31">
+      <c r="K51" s="25">
         <f>J51+H51</f>
         <v>130000</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.2">
-      <c r="A52" s="30">
+      <c r="A52" s="24">
         <v>19</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="30">
+      <c r="D52" s="24">
         <v>1</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="25">
         <v>15000</v>
       </c>
-      <c r="F52" s="31">
+      <c r="F52" s="25">
         <v>65000</v>
       </c>
-      <c r="G52" s="31">
+      <c r="G52" s="25">
         <v>1</v>
       </c>
-      <c r="H52" s="31">
+      <c r="H52" s="25">
         <f>G52*E52</f>
         <v>15000</v>
       </c>
-      <c r="I52" s="31">
+      <c r="I52" s="25">
         <v>1</v>
       </c>
-      <c r="J52" s="31">
+      <c r="J52" s="25">
         <f>I52*F52</f>
         <v>65000</v>
       </c>
-      <c r="K52" s="31">
+      <c r="K52" s="25">
         <f>J52+H52</f>
         <v>80000</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A53" s="30">
+      <c r="A53" s="24">
         <v>20</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="30">
+      <c r="D53" s="24">
         <v>1</v>
       </c>
-      <c r="E53" s="31">
+      <c r="E53" s="25">
         <v>15000</v>
       </c>
-      <c r="F53" s="31">
+      <c r="F53" s="25">
         <v>15000</v>
       </c>
-      <c r="G53" s="31">
+      <c r="G53" s="25">
         <v>1</v>
       </c>
-      <c r="H53" s="31">
+      <c r="H53" s="25">
         <f>G53*E53</f>
         <v>15000</v>
       </c>
-      <c r="I53" s="31">
+      <c r="I53" s="25">
         <v>1</v>
       </c>
-      <c r="J53" s="31">
+      <c r="J53" s="25">
         <f>I53*F53</f>
         <v>15000</v>
       </c>
-      <c r="K53" s="31">
+      <c r="K53" s="25">
         <f>J53+H53</f>
         <v>30000</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="21">
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="16">
         <f>SUM(H10:H53)</f>
         <v>5628400</v>
       </c>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21">
+      <c r="I54" s="16"/>
+      <c r="J54" s="16">
         <f>SUM(J10:J53)</f>
         <v>743030</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K54" s="16">
         <f>SUM(K10:K53)</f>
         <v>6371430</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="I8:I9"/>
     <mergeCell ref="A54:E54"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -3434,6 +3464,12 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
